--- a/jogo.xlsx
+++ b/jogo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resolve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui\Documents\GitHub\Resolve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02309880-995F-45AE-AFA2-4FF93C9DC29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0A30C6-5D4E-438A-9494-6628CA05F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela" sheetId="1" r:id="rId1"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D3DD57-DBB2-4E70-958E-7CFBA98DF5BD}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1658,7 +1658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF56A6C-6D53-4DC9-BD20-98D3A5A65379}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/jogo.xlsx
+++ b/jogo.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui\Documents\GitHub\Resolve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0A30C6-5D4E-438A-9494-6628CA05F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2940259B-C4BD-4AE9-9925-3617DB3BFE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela" sheetId="1" r:id="rId1"/>
     <sheet name="pontos" sheetId="2" r:id="rId2"/>
     <sheet name="tabelapontos" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
   <si>
     <t>Nomes</t>
   </si>
@@ -138,6 +139,36 @@
   </si>
   <si>
     <t>Milka xl</t>
+  </si>
+  <si>
+    <t>5PTS</t>
+  </si>
+  <si>
+    <t>10PTS</t>
+  </si>
+  <si>
+    <t>15PTS</t>
+  </si>
+  <si>
+    <t>20PTS</t>
+  </si>
+  <si>
+    <t>25PTS</t>
+  </si>
+  <si>
+    <t>-3PTS</t>
+  </si>
+  <si>
+    <t>-6PTS</t>
+  </si>
+  <si>
+    <t>-5PTS</t>
+  </si>
+  <si>
+    <t>-2PTS</t>
+  </si>
+  <si>
+    <t>0.25PTS POR €</t>
   </si>
 </sst>
 </file>
@@ -197,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -209,6 +240,10 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,15 +560,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D3DD57-DBB2-4E70-958E-7CFBA98DF5BD}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
@@ -611,50 +646,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>pontos!C18*tabelapontos!$B$2</f>
+        <f>pontos!C18*Sheet1!$B$2</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <f>pontos!D18*Sheet1!$B$3</f>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <f>pontos!E18*Sheet1!$B$4</f>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <f>pontos!F18*Sheet1!$B$5</f>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <f>pontos!G18*Sheet1!$B$6</f>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <f>pontos!H18*Sheet1!$B$7</f>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <f>pontos!I18/4</f>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <f>pontos!J18*Sheet1!$B$9</f>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
+        <f>pontos!K18*Sheet1!$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <f>pontos!L18*Sheet1!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <f>pontos!M18*Sheet1!$D$3</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <f>pontos!N18*Sheet1!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <f>pontos!O18*Sheet1!$D$5</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <f>pontos!P18*Sheet1!$D$6</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>pontos!Q18*Sheet1!$D$7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -665,50 +714,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <f>pontos!C19*tabelapontos!$B$2</f>
+        <f>pontos!C19*Sheet1!$B$2</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <f>pontos!D19*Sheet1!$B$3</f>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <f>pontos!E19*Sheet1!$B$4</f>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <f>pontos!F19*Sheet1!$B$5</f>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <f>pontos!G19*Sheet1!$B$6</f>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <f>pontos!H19*Sheet1!$B$7</f>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <f>pontos!I19/4</f>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <f>pontos!J19*Sheet1!$B$9</f>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
+        <f>pontos!K19*Sheet1!$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <f>pontos!L19*Sheet1!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <f>pontos!M19*Sheet1!$D$3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <f>pontos!N19*Sheet1!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <f>pontos!O19*Sheet1!$D$5</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <f>pontos!P19*Sheet1!$D$6</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>pontos!Q19*Sheet1!$D$7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -719,50 +782,64 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f>pontos!C20*tabelapontos!$B$2</f>
+        <f>pontos!C20*Sheet1!$B$2</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <f>pontos!D20*Sheet1!$B$3</f>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <f>pontos!E20*Sheet1!$B$4</f>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <f>pontos!F20*Sheet1!$B$5</f>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <f>pontos!G20*Sheet1!$B$6</f>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <f>pontos!H20*Sheet1!$B$7</f>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <f>pontos!I20/4</f>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <f>pontos!J20*Sheet1!$B$9</f>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
+        <f>pontos!K20*Sheet1!$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <f>pontos!L20*Sheet1!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <f>pontos!M20*Sheet1!$D$3</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <f>pontos!N20*Sheet1!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <f>pontos!O20*Sheet1!$D$5</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <f>pontos!P20*Sheet1!$D$6</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>pontos!Q20*Sheet1!$D$7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -773,50 +850,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <f>pontos!C21*tabelapontos!$B$2</f>
+        <f>pontos!C21*Sheet1!$B$2</f>
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <f>pontos!D21*Sheet1!$B$3</f>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <f>pontos!E21*Sheet1!$B$4</f>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <f>pontos!F21*Sheet1!$B$5</f>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <f>pontos!G21*Sheet1!$B$6</f>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <f>pontos!H21*Sheet1!$B$7</f>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <f>pontos!I21/4</f>
+        <v>0.25</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <f>pontos!J21*Sheet1!$B$9</f>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
+        <f>pontos!K21*Sheet1!$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <f>pontos!L21*Sheet1!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <f>pontos!M21*Sheet1!$D$3</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <f>pontos!N21*Sheet1!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <f>pontos!O21*Sheet1!$D$5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <f>pontos!P21*Sheet1!$D$6</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>pontos!Q21*Sheet1!$D$7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -827,50 +918,64 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f>pontos!C22*tabelapontos!$B$2</f>
+        <f>pontos!C22*Sheet1!$B$2</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <f>pontos!D22*Sheet1!$B$3</f>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <f>pontos!E22*Sheet1!$B$4</f>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <f>pontos!F22*Sheet1!$B$5</f>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <f>pontos!G22*Sheet1!$B$6</f>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <f>pontos!H22*Sheet1!$B$7</f>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <f>pontos!I22/4</f>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <f>pontos!J22*Sheet1!$B$9</f>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
+        <f>pontos!K22*Sheet1!$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <f>pontos!L22*Sheet1!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <f>pontos!M22*Sheet1!$D$3</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <f>pontos!N22*Sheet1!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <f>pontos!O22*Sheet1!$D$5</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <f>pontos!P22*Sheet1!$D$6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <f>pontos!Q22*Sheet1!$D$7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -881,50 +986,64 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <f>pontos!C23*tabelapontos!$B$2</f>
+        <f>pontos!C23*Sheet1!$B$2</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <f>pontos!D23*Sheet1!$B$3</f>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <f>pontos!E23*Sheet1!$B$4</f>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <f>pontos!F23*Sheet1!$B$5</f>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <f>pontos!G23*Sheet1!$B$6</f>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <f>pontos!H23*Sheet1!$B$7</f>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <f>pontos!I23/4</f>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <f>pontos!J23*Sheet1!$B$9</f>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>6</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <v>6</v>
-      </c>
-      <c r="N7">
-        <v>6</v>
-      </c>
-      <c r="O7">
-        <v>6</v>
-      </c>
-      <c r="P7">
-        <v>6</v>
-      </c>
-      <c r="Q7">
-        <v>6</v>
+        <f>pontos!K23*Sheet1!$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <f>pontos!L23*Sheet1!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <f>pontos!M23*Sheet1!$D$3</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <f>pontos!N23*Sheet1!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <f>pontos!O23*Sheet1!$D$5</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <f>pontos!P23*Sheet1!$D$6</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <f>pontos!Q23*Sheet1!$D$7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -935,50 +1054,64 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <f>pontos!C24*tabelapontos!$B$2</f>
+        <f>pontos!C24*Sheet1!$B$2</f>
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <f>pontos!D24*Sheet1!$B$3</f>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <f>pontos!E24*Sheet1!$B$4</f>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <f>pontos!F24*Sheet1!$B$5</f>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <f>pontos!G24*Sheet1!$B$6</f>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <f>pontos!H24*Sheet1!$B$7</f>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <f>pontos!I24/4</f>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <f>pontos!J24*Sheet1!$B$9</f>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8">
-        <v>7</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>7</v>
-      </c>
-      <c r="O8">
-        <v>7</v>
-      </c>
-      <c r="P8">
-        <v>7</v>
-      </c>
-      <c r="Q8">
-        <v>7</v>
+        <f>pontos!K24*Sheet1!$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <f>pontos!L24*Sheet1!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <f>pontos!M24*Sheet1!$D$3</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <f>pontos!N24*Sheet1!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <f>pontos!O24*Sheet1!$D$5</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <f>pontos!P24*Sheet1!$D$6</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <f>pontos!Q24*Sheet1!$D$7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -989,50 +1122,64 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <f>pontos!C25*tabelapontos!$B$2</f>
+        <f>pontos!C25*Sheet1!$B$2</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <f>pontos!D25*Sheet1!$B$3</f>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <f>pontos!E25*Sheet1!$B$4</f>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <f>pontos!F25*Sheet1!$B$5</f>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <f>pontos!G25*Sheet1!$B$6</f>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <f>pontos!H25*Sheet1!$B$7</f>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <f>pontos!I25/4</f>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <f>pontos!J25*Sheet1!$B$9</f>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>10</v>
-      </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-      <c r="M9">
-        <v>10</v>
-      </c>
-      <c r="N9">
-        <v>10</v>
-      </c>
-      <c r="O9">
-        <v>10</v>
-      </c>
-      <c r="P9">
-        <v>10</v>
-      </c>
-      <c r="Q9">
-        <v>165</v>
+        <f>pontos!K25*Sheet1!$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <f>pontos!L25*Sheet1!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <f>pontos!M25*Sheet1!$D$3</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <f>pontos!N25*Sheet1!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <f>pontos!O25*Sheet1!$D$5</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <f>pontos!P25*Sheet1!$D$6</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <f>pontos!Q25*Sheet1!$D$7</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1044,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE91CA0-14F0-4619-8566-FD441E8450E4}">
   <dimension ref="A12:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1658,14 +1805,179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF56A6C-6D53-4DC9-BD20-98D3A5A65379}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99AF2D8-8CD6-4A74-9497-277290338091}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>

--- a/jogo.xlsx
+++ b/jogo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui\Documents\GitHub\Resolve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2940259B-C4BD-4AE9-9925-3617DB3BFE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A983F77-790A-457D-B608-1CBA21888152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela" sheetId="1" r:id="rId1"/>
@@ -875,7 +875,7 @@
       </c>
       <c r="I5">
         <f>pontos!I21/4</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <f>pontos!J21*Sheet1!$B$9</f>
@@ -1191,7 +1191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE91CA0-14F0-4619-8566-FD441E8450E4}">
   <dimension ref="A12:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1805,7 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF56A6C-6D53-4DC9-BD20-98D3A5A65379}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/jogo.xlsx
+++ b/jogo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui\Documents\GitHub\Resolve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A983F77-790A-457D-B608-1CBA21888152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B69147-4112-4DBD-8FD4-C59C10271F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela" sheetId="1" r:id="rId1"/>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D3DD57-DBB2-4E70-958E-7CFBA98DF5BD}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +815,7 @@
       </c>
       <c r="K4">
         <f>pontos!K20*Sheet1!$B$10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L4" s="6">
         <f>pontos!L20*Sheet1!$D$2</f>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE91CA0-14F0-4619-8566-FD441E8450E4}">
   <dimension ref="A12:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>

--- a/jogo.xlsx
+++ b/jogo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui\Documents\GitHub\Resolve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B69147-4112-4DBD-8FD4-C59C10271F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D53B1C6-D39F-4CD6-8F27-7BB6981F9BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -560,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D3DD57-DBB2-4E70-958E-7CFBA98DF5BD}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -803,7 +803,7 @@
       </c>
       <c r="H4">
         <f>pontos!H20*Sheet1!$B$7</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I4">
         <f>pontos!I20/4</f>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE91CA0-14F0-4619-8566-FD441E8450E4}">
   <dimension ref="A12:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>

--- a/jogo.xlsx
+++ b/jogo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui\Documents\GitHub\Resolve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D53B1C6-D39F-4CD6-8F27-7BB6981F9BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A512EF6-F297-4320-A0A6-1D9476754664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela" sheetId="1" r:id="rId1"/>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D3DD57-DBB2-4E70-958E-7CFBA98DF5BD}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +799,7 @@
       </c>
       <c r="G4">
         <f>pontos!G20*Sheet1!$B$6</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <f>pontos!H20*Sheet1!$B$7</f>
@@ -815,7 +815,7 @@
       </c>
       <c r="K4">
         <f>pontos!K20*Sheet1!$B$10</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L4" s="6">
         <f>pontos!L20*Sheet1!$D$2</f>
@@ -850,63 +850,63 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <f>pontos!C21*Sheet1!$B$2</f>
+        <f>pontos!C21*Sheet1!$B$2*2</f>
         <v>0</v>
       </c>
       <c r="D5">
-        <f>pontos!D21*Sheet1!$B$3</f>
+        <f>pontos!D21*Sheet1!$B$3*2</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>pontos!E21*Sheet1!$B$4</f>
+        <f>pontos!E21*Sheet1!$B$4*2</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>pontos!F21*Sheet1!$B$5</f>
+        <f>pontos!F21*Sheet1!$B$5*2</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>pontos!G21*Sheet1!$B$6</f>
+        <f>pontos!G21*Sheet1!$B$6*2</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>pontos!H21*Sheet1!$B$7</f>
-        <v>0</v>
+        <f>pontos!H21*Sheet1!$B$7*2</f>
+        <v>100</v>
       </c>
       <c r="I5">
-        <f>pontos!I21/4</f>
+        <f>pontos!I21/2</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>pontos!J21*Sheet1!$B$9</f>
+        <f>pontos!J21*Sheet1!$B$9*2</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>pontos!K21*Sheet1!$B$10</f>
+        <f>pontos!K21*Sheet1!$B$10*2</f>
         <v>0</v>
       </c>
       <c r="L5" s="6">
-        <f>pontos!L21*Sheet1!$D$2</f>
+        <f>pontos!L21*Sheet1!$D$2*2</f>
         <v>0</v>
       </c>
       <c r="M5" s="6">
-        <f>pontos!M21*Sheet1!$D$3</f>
+        <f>pontos!M21*Sheet1!$D$3*2</f>
         <v>0</v>
       </c>
       <c r="N5" s="6">
-        <f>pontos!N21*Sheet1!$D$4</f>
+        <f>pontos!N21*Sheet1!$D$4*2</f>
         <v>0</v>
       </c>
       <c r="O5" s="6">
-        <f>pontos!O21*Sheet1!$D$5</f>
+        <f>pontos!O21*Sheet1!$D$5*2</f>
         <v>0</v>
       </c>
       <c r="P5" s="6">
-        <f>pontos!P21*Sheet1!$D$6</f>
+        <f>pontos!P21*Sheet1!$D$6*2</f>
         <v>0</v>
       </c>
       <c r="Q5" s="6">
-        <f>pontos!Q21*Sheet1!$D$7</f>
+        <f>pontos!Q21*Sheet1!$D$7*2</f>
         <v>0</v>
       </c>
     </row>
@@ -918,63 +918,63 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f>pontos!C22*Sheet1!$B$2</f>
+        <f>pontos!C22*Sheet1!$B$2*2</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>pontos!D22*Sheet1!$B$3</f>
+        <f>pontos!D22*Sheet1!$B$3*2</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>pontos!E22*Sheet1!$B$4</f>
+        <f>pontos!E22*Sheet1!$B$4*2</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>pontos!F22*Sheet1!$B$5</f>
+        <f>pontos!F22*Sheet1!$B$5*2</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>pontos!G22*Sheet1!$B$6</f>
+        <f>pontos!G22*Sheet1!$B$6*2</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>pontos!H22*Sheet1!$B$7</f>
+        <f>pontos!H22*Sheet1!$B$7*2</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>pontos!I22/4</f>
+        <f>pontos!I22/2</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>pontos!J22*Sheet1!$B$9</f>
+        <f>pontos!J22*Sheet1!$B$9*2</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>pontos!K22*Sheet1!$B$10</f>
+        <f>pontos!K22*Sheet1!$B$10*2</f>
         <v>0</v>
       </c>
       <c r="L6" s="6">
-        <f>pontos!L22*Sheet1!$D$2</f>
+        <f>pontos!L22*Sheet1!$D$2*2</f>
         <v>0</v>
       </c>
       <c r="M6" s="6">
-        <f>pontos!M22*Sheet1!$D$3</f>
+        <f>pontos!M22*Sheet1!$D$3*2</f>
         <v>0</v>
       </c>
       <c r="N6" s="6">
-        <f>pontos!N22*Sheet1!$D$4</f>
+        <f>pontos!N22*Sheet1!$D$4*2</f>
         <v>0</v>
       </c>
       <c r="O6" s="6">
-        <f>pontos!O22*Sheet1!$D$5</f>
+        <f>pontos!O22*Sheet1!$D$5*2</f>
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <f>pontos!P22*Sheet1!$D$6</f>
+        <f>pontos!P22*Sheet1!$D$6*2</f>
         <v>0</v>
       </c>
       <c r="Q6" s="6">
-        <f>pontos!Q22*Sheet1!$D$7</f>
+        <f>pontos!Q22*Sheet1!$D$7*2</f>
         <v>0</v>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="K7">
         <f>pontos!K23*Sheet1!$B$10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" s="6">
         <f>pontos!L23*Sheet1!$D$2</f>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE91CA0-14F0-4619-8566-FD441E8450E4}">
   <dimension ref="A12:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1971,7 +1971,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/jogo.xlsx
+++ b/jogo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui\Documents\GitHub\Resolve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A512EF6-F297-4320-A0A6-1D9476754664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E99A5F8-7BCF-4AD8-AC5C-4940639470DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="tabela" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D3DD57-DBB2-4E70-958E-7CFBA98DF5BD}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -803,7 +803,7 @@
       </c>
       <c r="H4">
         <f>pontos!H20*Sheet1!$B$7</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I4">
         <f>pontos!I20/4</f>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE91CA0-14F0-4619-8566-FD441E8450E4}">
   <dimension ref="A12:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>

--- a/jogo.xlsx
+++ b/jogo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui\Documents\GitHub\Resolve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E99A5F8-7BCF-4AD8-AC5C-4940639470DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8B4C07-4812-4E10-9161-13D2A64CEC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
   </bookViews>
@@ -803,7 +803,7 @@
       </c>
       <c r="H4">
         <f>pontos!H20*Sheet1!$B$7</f>
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="I4">
         <f>pontos!I20/4</f>
@@ -815,7 +815,7 @@
       </c>
       <c r="K4">
         <f>pontos!K20*Sheet1!$B$10</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L4" s="6">
         <f>pontos!L20*Sheet1!$D$2</f>
@@ -1192,7 +1192,7 @@
   <dimension ref="A12:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>0</v>

--- a/jogo.xlsx
+++ b/jogo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui\Documents\GitHub\Resolve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8B4C07-4812-4E10-9161-13D2A64CEC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EA0CAD-EC47-49DD-8D85-F5C57511C644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
   </bookViews>
@@ -735,7 +735,7 @@
       </c>
       <c r="H3">
         <f>pontos!H19*Sheet1!$B$7</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I3">
         <f>pontos!I19/4</f>
@@ -803,7 +803,7 @@
       </c>
       <c r="H4">
         <f>pontos!H20*Sheet1!$B$7</f>
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="I4">
         <f>pontos!I20/4</f>
@@ -815,7 +815,7 @@
       </c>
       <c r="K4">
         <f>pontos!K20*Sheet1!$B$10</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L4" s="6">
         <f>pontos!L20*Sheet1!$D$2</f>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H7">
         <f>pontos!H23*Sheet1!$B$7</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I7">
         <f>pontos!I23/4</f>
@@ -1192,7 +1192,7 @@
   <dimension ref="A12:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>

--- a/jogo.xlsx
+++ b/jogo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui\Documents\GitHub\Resolve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EA0CAD-EC47-49DD-8D85-F5C57511C644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE847C7D-E889-427F-8883-F08D45B760F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
   </bookViews>
@@ -667,7 +667,7 @@
       </c>
       <c r="H2">
         <f>pontos!H18*Sheet1!$B$7</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <f>pontos!I18/4</f>
@@ -1192,7 +1192,7 @@
   <dimension ref="A12:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>

--- a/jogo.xlsx
+++ b/jogo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui\Documents\GitHub\Resolve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE847C7D-E889-427F-8883-F08D45B760F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5217259A-03E9-4D45-AE35-AD8C2A6EFC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
   </bookViews>
@@ -663,7 +663,7 @@
       </c>
       <c r="G2">
         <f>pontos!G18*Sheet1!$B$6</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <f>pontos!H18*Sheet1!$B$7</f>
@@ -679,7 +679,7 @@
       </c>
       <c r="K2">
         <f>pontos!K18*Sheet1!$B$10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L2" s="6">
         <f>pontos!L18*Sheet1!$D$2</f>
@@ -803,7 +803,7 @@
       </c>
       <c r="H4">
         <f>pontos!H20*Sheet1!$B$7</f>
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="I4">
         <f>pontos!I20/4</f>
@@ -815,7 +815,7 @@
       </c>
       <c r="K4">
         <f>pontos!K20*Sheet1!$B$10</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L4" s="6">
         <f>pontos!L20*Sheet1!$D$2</f>
@@ -871,7 +871,7 @@
       </c>
       <c r="H5">
         <f>pontos!H21*Sheet1!$B$7*2</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I5">
         <f>pontos!I21/2</f>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H7">
         <f>pontos!H23*Sheet1!$B$7</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I7">
         <f>pontos!I23/4</f>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="K7">
         <f>pontos!K23*Sheet1!$B$10</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L7" s="6">
         <f>pontos!L23*Sheet1!$D$2</f>
@@ -1192,7 +1192,7 @@
   <dimension ref="A12:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>0</v>

--- a/jogo.xlsx
+++ b/jogo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui\Documents\GitHub\Resolve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5217259A-03E9-4D45-AE35-AD8C2A6EFC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A0BEB2-1E94-4EF8-B225-A0793D7CE56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
   </bookViews>
@@ -731,7 +731,7 @@
       </c>
       <c r="G3">
         <f>pontos!G19*Sheet1!$B$6</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <f>pontos!H19*Sheet1!$B$7</f>
@@ -803,7 +803,7 @@
       </c>
       <c r="H4">
         <f>pontos!H20*Sheet1!$B$7</f>
-        <v>325</v>
+        <v>450</v>
       </c>
       <c r="I4">
         <f>pontos!I20/4</f>
@@ -815,7 +815,7 @@
       </c>
       <c r="K4">
         <f>pontos!K20*Sheet1!$B$10</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L4" s="6">
         <f>pontos!L20*Sheet1!$D$2</f>
@@ -871,7 +871,7 @@
       </c>
       <c r="H5">
         <f>pontos!H21*Sheet1!$B$7*2</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I5">
         <f>pontos!I21/2</f>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="I7">
         <f>pontos!I23/4</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="J7">
         <f>pontos!J23*Sheet1!$B$9</f>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="H8">
         <f>pontos!H24*Sheet1!$B$7</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I8">
         <f>pontos!I24/4</f>
@@ -1143,11 +1143,11 @@
       </c>
       <c r="H9">
         <f>pontos!H25*Sheet1!$B$7</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I9">
         <f>pontos!I25/4</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J9">
         <f>pontos!J25*Sheet1!$B$9</f>
@@ -1192,7 +1192,7 @@
   <dimension ref="A12:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1766,10 +1766,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/jogo.xlsx
+++ b/jogo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui\Documents\GitHub\Resolve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A0BEB2-1E94-4EF8-B225-A0793D7CE56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30946C1D-8909-474C-8D9A-0C402A6BECF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
   </bookViews>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G9">
         <f>pontos!G25*Sheet1!$B$6</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <f>pontos!H25*Sheet1!$B$7</f>
@@ -1192,7 +1192,7 @@
   <dimension ref="A12:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>

--- a/jogo.xlsx
+++ b/jogo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui\Documents\GitHub\Resolve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30946C1D-8909-474C-8D9A-0C402A6BECF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290EC7D0-5D57-47E1-8DF3-B0423F0FF83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{90335163-4794-4FEF-B03F-A24337BB0CAB}"/>
   </bookViews>
@@ -22,6 +22,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -663,7 +674,7 @@
       </c>
       <c r="G2">
         <f>pontos!G18*Sheet1!$B$6</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <f>pontos!H18*Sheet1!$B$7</f>
@@ -679,7 +690,7 @@
       </c>
       <c r="K2">
         <f>pontos!K18*Sheet1!$B$10</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L2" s="6">
         <f>pontos!L18*Sheet1!$D$2</f>
@@ -803,7 +814,7 @@
       </c>
       <c r="H4">
         <f>pontos!H20*Sheet1!$B$7</f>
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="I4">
         <f>pontos!I20/4</f>
@@ -815,7 +826,7 @@
       </c>
       <c r="K4">
         <f>pontos!K20*Sheet1!$B$10</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L4" s="6">
         <f>pontos!L20*Sheet1!$D$2</f>
@@ -1075,7 +1086,7 @@
       </c>
       <c r="H8">
         <f>pontos!H24*Sheet1!$B$7</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I8">
         <f>pontos!I24/4</f>
@@ -1139,7 +1150,7 @@
       </c>
       <c r="G9">
         <f>pontos!G25*Sheet1!$B$6</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <f>pontos!H25*Sheet1!$B$7</f>
@@ -1192,7 +1203,7 @@
   <dimension ref="A12:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1404,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1501,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1510,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1713,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1763,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>1</v>
